--- a/TranslateUtility/download/custom_template.xlsx
+++ b/TranslateUtility/download/custom_template.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">KEY_HEX</t>
   </si>
   <si>
-    <t xml:space="preserve">KEY_STRING</t>
+    <t xml:space="preserve">ORIGINAL_MESSAGE</t>
   </si>
   <si>
     <t xml:space="preserve">MESSAGE</t>
@@ -293,8 +293,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="48.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="7" style="0" width="8.57"/>
